--- a/data/trans_bre/P21D_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P21D_4_R-Edad-trans_bre.xlsx
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.006067871929894</v>
+        <v>3.870451735750603</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8979721794087311</v>
+        <v>0.8979721794087313</v>
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2713840868332451</v>
+        <v>0.235894945869071</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.316380014907146</v>
+        <v>2.188201330895152</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.229927344624198</v>
+        <v>0.2299273446241978</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.6368364438366018</v>
+        <v>0.6368364438366011</v>
       </c>
     </row>
     <row r="14">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.03841387585754</v>
+        <v>-0.8837968655566846</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
     </row>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.164692522825236</v>
+        <v>0.9915500353575157</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8730702546442456</v>
+        <v>0.8730702546442454</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>1.358925093331573</v>
+        <v>1.358925093331572</v>
       </c>
     </row>
     <row r="17">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6169418349128047</v>
+        <v>-0.5903752970567422</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.813848072233005</v>
+        <v>-0.8116744118004106</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.340851426327946</v>
+        <v>2.433079832573841</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5978568863912891</v>
+        <v>0.5948300064065614</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
     </row>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.352274522035386</v>
+        <v>3.183483996234818</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
     </row>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.331575261445925</v>
+        <v>-2.559379502376227</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
     </row>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2313921481035412</v>
+        <v>0.2280318001647114</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2758383631366215</v>
+        <v>0.09841212129459884</v>
       </c>
     </row>
     <row r="27">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.102027450482243</v>
+        <v>1.106975108544344</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>16.70289805375123</v>
+        <v>12.40555339784844</v>
       </c>
     </row>
     <row r="28">
